--- a/CRS Travel Advisor Web Application.xlsx
+++ b/CRS Travel Advisor Web Application.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE46471-49C8-40AB-9B7D-CF194D1EBC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t>CR2</t>
+  </si>
+  <si>
+    <t>Registeration</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>CR3</t>
+  </si>
+  <si>
+    <t>CR4</t>
+  </si>
+  <si>
+    <t>CR5</t>
+  </si>
+  <si>
+    <t>The system shall allow new users to create an account by filling in personal information including 
+1-username,
+ 2-email
+3-phone number
+4-password
+The username must contain at least 3 letters and may include special characters . Each registration is validated to ensure that the user data is unique and complies with formatting rules.</t>
+  </si>
+  <si>
+    <t>Users shall be able to log in using their registered email and password
+ The password must be at least  8 characters long and include at least one special character.
+ Successful authentication will redirect users to their dashboard.</t>
+  </si>
+  <si>
+    <t>The system shall provide an admin interface with permissions to 
+add, delete, and update users and their Feedback. 
+This feature helps maintain content quality and user management across the platform.</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Users shall be able to rate travel destinations using a
+ 5-star rating system. 
+These ratings will be saved in the user’s history and displayed visually for feedback and reference by others.</t>
+  </si>
+  <si>
+    <t>The platform shall enable users to search for and book flights by selecting travel dates
+,destinations, and airlines. Once a booking is made, data will be collected and sent to a third-party service to check for flight availability and confirm the reservation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +132,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,34 +174,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -330,13 +425,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0DE32F84-A01B-4465-8D29-EE4E50DA448B}">
+      <formula1>"Approved , Not Approved"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CRS Travel Advisor Web Application.xlsx
+++ b/CRS Travel Advisor Web Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE46471-49C8-40AB-9B7D-CF194D1EBC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E25708D-5460-4AD2-9CD9-5D555570BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -94,9 +94,6 @@
   <si>
     <t>The platform shall enable users to search for and book flights by selecting travel dates
 ,destinations, and airlines. Once a booking is made, data will be collected and sent to a third-party service to check for flight availability and confirm the reservation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved </t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +459,6 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -475,9 +469,6 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
